--- a/output/fit_clients/fit_round_439.xlsx
+++ b/output/fit_clients/fit_round_439.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1883863281.4253</v>
+        <v>1795019264.955809</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1080211862148208</v>
+        <v>0.1065355085509787</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02806150015863381</v>
+        <v>0.03446876380514438</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>941931620.757295</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2212569462.900532</v>
+        <v>1691254077.378573</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1675290960238114</v>
+        <v>0.1772885795934246</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03709756017096543</v>
+        <v>0.04787484777966049</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1106284804.454167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4630032290.494999</v>
+        <v>3618364739.678761</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1477042865099696</v>
+        <v>0.1647463617871137</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03071038649355322</v>
+        <v>0.02308393241892657</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>159</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2315016204.079174</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3168353859.058797</v>
+        <v>3417086130.486222</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07887267876924253</v>
+        <v>0.1037398150633373</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03956158865015554</v>
+        <v>0.03869899654413452</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>162</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1584176988.28248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1783942485.473672</v>
+        <v>2354393365.563504</v>
       </c>
       <c r="F6" t="n">
-        <v>0.136707367540842</v>
+        <v>0.09151886411510134</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04314526333975826</v>
+        <v>0.05627645348648948</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>891971295.7318554</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2387791694.526862</v>
+        <v>2023421545.339101</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07229976981576881</v>
+        <v>0.08373398267164787</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04610921202601383</v>
+        <v>0.03162282058050147</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>138</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1193895871.076847</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2869000444.493043</v>
+        <v>3533457361.153672</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2194231030034924</v>
+        <v>0.1976410985855619</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02195573576896359</v>
+        <v>0.02577276404014059</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>140</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1434500266.387279</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1511040975.979483</v>
+        <v>1828165696.014564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1883269521668406</v>
+        <v>0.1365890955719579</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03544388798311766</v>
+        <v>0.02454155600738441</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>755520582.4598283</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4541982583.470484</v>
+        <v>5277986813.776615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1727146707936573</v>
+        <v>0.15989657181115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03383213709275641</v>
+        <v>0.05421758707371239</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>185</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2270991355.581857</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4181320416.690664</v>
+        <v>3135771964.426755</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1250604731287988</v>
+        <v>0.1542943900063181</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04279724062686761</v>
+        <v>0.03322976515386795</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2090660233.665177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2993135920.163476</v>
+        <v>2656029450.292398</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1921504113876379</v>
+        <v>0.1956804696648007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04529652987274644</v>
+        <v>0.04276760999766745</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>150</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1496567977.499416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3803469199.874915</v>
+        <v>3548744470.391042</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06239548847784725</v>
+        <v>0.07990299574655005</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03107456082262778</v>
+        <v>0.02367833929354036</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>147</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1901734664.865675</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2678203396.008325</v>
+        <v>3853270564.427757</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1889539690778047</v>
+        <v>0.138896474617752</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02896111193762677</v>
+        <v>0.02874117462343792</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>141</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1339101755.766132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1727494701.62662</v>
+        <v>1559626792.572781</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024299632387084</v>
+        <v>0.07549574755253244</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03207438786431085</v>
+        <v>0.0368357459261898</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>863747487.9090958</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2826863091.904201</v>
+        <v>2548142222.796157</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0711557294734099</v>
+        <v>0.09466514523381897</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04800526714873726</v>
+        <v>0.04361629768241934</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1413431547.579746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3448442806.691811</v>
+        <v>4138197984.813383</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1066747906026162</v>
+        <v>0.1239442176003989</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03735821433227205</v>
+        <v>0.05115779077927855</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>128</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1724221465.215766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2420863501.307301</v>
+        <v>3820440260.919036</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1194162747856904</v>
+        <v>0.1780622539022212</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03072151738314516</v>
+        <v>0.02290725767264692</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>144</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1210431822.920335</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1296626417.904193</v>
+        <v>1100362486.370949</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1600660296007665</v>
+        <v>0.1767098855439312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02707543672924032</v>
+        <v>0.02180514758706621</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>648313310.4137647</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2185339161.706908</v>
+        <v>2588423843.210085</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1173134072225711</v>
+        <v>0.157104721266805</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0260259805053322</v>
+        <v>0.02895972991417645</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1092669587.487364</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2010817788.570633</v>
+        <v>2612074073.447161</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09880646167536605</v>
+        <v>0.08805104860590086</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04129146501846638</v>
+        <v>0.03245098693585453</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1005408929.198396</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2442204021.328268</v>
+        <v>3949272981.284768</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1027897203454554</v>
+        <v>0.1261730482527658</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03665952742112236</v>
+        <v>0.0457563986273577</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>121</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1221102105.614583</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1533716367.73965</v>
+        <v>1242431316.372179</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1498786775286915</v>
+        <v>0.1435564310120281</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0540155133738109</v>
+        <v>0.0534493096709217</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>766858164.1514152</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3790419240.805745</v>
+        <v>3834702548.625439</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1102625462865727</v>
+        <v>0.1389274025998387</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0241238650456595</v>
+        <v>0.02962046486713107</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>128</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1895209602.504002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1293735465.752033</v>
+        <v>1077072904.256281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09257042007243178</v>
+        <v>0.09528502238217076</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02021109567728252</v>
+        <v>0.02006758083468228</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>646867729.3169765</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1202205478.089719</v>
+        <v>1019869582.488502</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09482029774142273</v>
+        <v>0.0988436237025678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02774580302575605</v>
+        <v>0.02841593481535968</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601102760.6847047</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3491672210.117597</v>
+        <v>4222400241.16551</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1142620413465215</v>
+        <v>0.1553144629033784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02649763192291316</v>
+        <v>0.02342583348253388</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1745836140.501723</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3588151372.715984</v>
+        <v>2449401633.506745</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1387598633120849</v>
+        <v>0.127804698710221</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03157073147655057</v>
+        <v>0.0312243357776255</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1794075748.684091</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3578467266.286307</v>
+        <v>5538099801.290518</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09663461406339116</v>
+        <v>0.1500731093674164</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04409484039177479</v>
+        <v>0.0378681496217913</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>194</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1789233679.180545</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2165210581.179512</v>
+        <v>1971245035.870699</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148713637705855</v>
+        <v>0.1316550319984962</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03466404176341603</v>
+        <v>0.03841761762462441</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1082605346.915016</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1416541054.030262</v>
+        <v>1474189643.802715</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07675491505419424</v>
+        <v>0.09816599939418162</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0479430583542983</v>
+        <v>0.05042512435792137</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>708270427.5266993</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1636445506.796683</v>
+        <v>1393161774.832598</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1090770372757925</v>
+        <v>0.1098153315950262</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03137449588112207</v>
+        <v>0.03339525674487865</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>818222850.0248848</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1964874393.584955</v>
+        <v>3122893856.580291</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1868249434305597</v>
+        <v>0.200726637878106</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04694663442649155</v>
+        <v>0.04829876084322328</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>135</v>
-      </c>
-      <c r="J33" t="n">
-        <v>982437280.5757459</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1066694833.769326</v>
+        <v>1370506941.644069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07729999008536112</v>
+        <v>0.08823900717442419</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02047098131458714</v>
+        <v>0.02708180442469902</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>533347443.8217312</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>944564485.669644</v>
+        <v>1117334293.705201</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0876749677425632</v>
+        <v>0.07247715837308438</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0438158364151334</v>
+        <v>0.03700313348591664</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>472282273.5866602</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2608917781.91847</v>
+        <v>2372243603.780334</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1552896858552861</v>
+        <v>0.1707505228318349</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01897193422045138</v>
+        <v>0.02089338343260557</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>110</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1304458904.237494</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2721996663.548857</v>
+        <v>2569668313.829958</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08190337939888825</v>
+        <v>0.09693369757787323</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03922209399183557</v>
+        <v>0.03793998576524137</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>118</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1360998458.372956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1495738935.662986</v>
+        <v>1712241889.710085</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1079960722821939</v>
+        <v>0.07368225188570234</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02412240371268571</v>
+        <v>0.03410103902851724</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>747869517.7089604</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2182060803.199224</v>
+        <v>2157558704.565521</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1789507354020559</v>
+        <v>0.1402414322978771</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02755564635829253</v>
+        <v>0.0301285328363008</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1091030368.553759</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1481740573.998451</v>
+        <v>1624333827.506794</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1260212664608003</v>
+        <v>0.1148161745080093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0485479162924668</v>
+        <v>0.04815890421736484</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>740870257.7699898</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1863440323.5554</v>
+        <v>1940321602.047041</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1180505244363605</v>
+        <v>0.1218348977221899</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04038715019782223</v>
+        <v>0.04475208635874033</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>931720249.4348733</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4003837233.495869</v>
+        <v>3233459101.615358</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1134714601705593</v>
+        <v>0.110477747090454</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03617025088078547</v>
+        <v>0.03605707950095365</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>145</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2001918646.289956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2486704381.428941</v>
+        <v>2004916985.725905</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1564272093125481</v>
+        <v>0.1377095818074487</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01825767396956824</v>
+        <v>0.01770998597231055</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>152</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1243352240.719075</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2307434436.80804</v>
+        <v>1479060108.163973</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08011951366321435</v>
+        <v>0.06782508269590332</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02280481942799604</v>
+        <v>0.02729158115420206</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1153717386.090307</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2525233002.454762</v>
+        <v>1658826838.057094</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1337264704410811</v>
+        <v>0.1334821352984356</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04227018486588196</v>
+        <v>0.04670391173176126</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1262616545.024538</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4166149185.509143</v>
+        <v>4012625285.618985</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1576972015389996</v>
+        <v>0.1308530931849775</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0423866517674461</v>
+        <v>0.03823868419539586</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>156</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2083074571.828551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4328010958.089253</v>
+        <v>4108171218.053906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1943689621830332</v>
+        <v>0.1587456471399499</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05430651604060902</v>
+        <v>0.05556208550918776</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>120</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2164005496.792908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3630578406.3805</v>
+        <v>4447022922.182544</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06778714336769982</v>
+        <v>0.08141982396813026</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03475556079540677</v>
+        <v>0.03096125737026068</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>143</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1815289259.08059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1479259731.731426</v>
+        <v>1673996345.662369</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1472020251205857</v>
+        <v>0.1899673939307548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04381084716445283</v>
+        <v>0.03106800205506613</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>739629901.1431066</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2812318049.330641</v>
+        <v>4110763363.484396</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1667263419566997</v>
+        <v>0.1159181714688717</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04031045427761858</v>
+        <v>0.04391427757029664</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>150</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1406159097.866497</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1444774794.579152</v>
+        <v>1406186945.201559</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1502972804699604</v>
+        <v>0.1216622600707266</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04563929155426028</v>
+        <v>0.05386108199241936</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>722387409.1963658</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3895118435.652145</v>
+        <v>4395023091.045159</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1031562814898412</v>
+        <v>0.1105333201673476</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04537654405273289</v>
+        <v>0.03988522837817825</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>181</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1947559280.494138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3107532323.780563</v>
+        <v>3671582991.915967</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1779589252396468</v>
+        <v>0.1313263936764158</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02719801885370715</v>
+        <v>0.02462506750330109</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1553766186.938895</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3544753020.389947</v>
+        <v>4567160312.955838</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1494494124106596</v>
+        <v>0.1307508589610006</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04493707490380051</v>
+        <v>0.04395841597779013</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1772376538.533155</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3697975615.200855</v>
+        <v>4590671423.67163</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2145359808176243</v>
+        <v>0.1693447361472747</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01983114588872683</v>
+        <v>0.03003951944521516</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1848987769.185122</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1660656683.815701</v>
+        <v>1584006141.091352</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1424193282113119</v>
+        <v>0.1283774078790048</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05125301078135623</v>
+        <v>0.05173057163387217</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>830328360.3881266</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4137020586.978707</v>
+        <v>3492090385.088136</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156928130098296</v>
+        <v>0.1215588382861529</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01834391176884335</v>
+        <v>0.01939232315500476</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>139</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2068510393.379353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1437701521.831479</v>
+        <v>1688067893.990697</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1892924434990656</v>
+        <v>0.1449325299146818</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02724263939218849</v>
+        <v>0.03461845612818253</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>718850797.755738</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4829949537.948754</v>
+        <v>3397294378.001487</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08388719047294745</v>
+        <v>0.1259610731900903</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04868063960297567</v>
+        <v>0.04444082919070319</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2414974704.912</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3232853217.670774</v>
+        <v>3166553859.266991</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1244831885751235</v>
+        <v>0.1794251073547299</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02808951031120669</v>
+        <v>0.03037017493103046</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>136</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1616426703.628407</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2481853085.495953</v>
+        <v>3027911727.459254</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1633134181208545</v>
+        <v>0.1458142285218698</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03212004627346427</v>
+        <v>0.02674916808156165</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>151</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1240926572.09709</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1825031049.478351</v>
+        <v>1689370092.547983</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1763309502233985</v>
+        <v>0.1275825111221534</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03387784839391186</v>
+        <v>0.03530108617237792</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>912515556.5963404</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4514088475.393667</v>
+        <v>3566369426.311415</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06885135456905631</v>
+        <v>0.09911711572606252</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03666482941121683</v>
+        <v>0.0372632818555638</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2257044277.1414</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4095213189.001873</v>
+        <v>4176986323.507581</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1912601610499098</v>
+        <v>0.152125501469405</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02429676433100976</v>
+        <v>0.03003420394037047</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>137</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2047606637.075572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5296043166.025498</v>
+        <v>4930032613.982036</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1389287856340613</v>
+        <v>0.1355263848261574</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03008157524172241</v>
+        <v>0.02075674902449042</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>157</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2648021524.263079</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4680693747.998569</v>
+        <v>3698381095.736235</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1585958411908139</v>
+        <v>0.1625004383955006</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03262482388433451</v>
+        <v>0.0354035054583182</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>130</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2340346884.051782</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2238997917.202596</v>
+        <v>3383006844.874485</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08374954887015103</v>
+        <v>0.06465848637386441</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03827998933294812</v>
+        <v>0.03555817321671735</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1119499041.337603</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5079670778.907029</v>
+        <v>4360525890.066866</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1544866667676149</v>
+        <v>0.1452738239820998</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04948369758803637</v>
+        <v>0.04261644318292868</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2539835450.699001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2235175162.047777</v>
+        <v>2001847254.910191</v>
       </c>
       <c r="F69" t="n">
-        <v>0.169428684616163</v>
+        <v>0.1422156735036824</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04398472340661673</v>
+        <v>0.05182186617409779</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1117587616.404441</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3508684534.856987</v>
+        <v>3187569671.935206</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09043364077119689</v>
+        <v>0.06954445236286108</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04448084726800502</v>
+        <v>0.03368781744420175</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>125</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1754342277.550337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4751726860.136145</v>
+        <v>4488550382.001463</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1837694096994222</v>
+        <v>0.1565831016902153</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0229212449615527</v>
+        <v>0.02898249228471196</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>160</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2375863517.291786</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2275821450.166811</v>
+        <v>2065399216.567976</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07845764985490913</v>
+        <v>0.09649989070843629</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03571412237492314</v>
+        <v>0.04726916969244372</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1137910626.97966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2462937620.530009</v>
+        <v>2727326875.903335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07221045584805229</v>
+        <v>0.0934518915416256</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0496963957127905</v>
+        <v>0.04277447796117811</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>166</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1231468855.43445</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3039394660.383435</v>
+        <v>2547224488.88663</v>
       </c>
       <c r="F74" t="n">
-        <v>0.163235571527152</v>
+        <v>0.1497212743551498</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03381814502339066</v>
+        <v>0.03336068972649781</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>150</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1519697392.200913</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2472028333.637317</v>
+        <v>1692442113.978146</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1376512464310228</v>
+        <v>0.1547773449782724</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03084452921783949</v>
+        <v>0.03422882615909435</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1236014086.773047</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4265649317.14708</v>
+        <v>4064138719.448208</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09325399811845482</v>
+        <v>0.09239187508254067</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03287477106614863</v>
+        <v>0.02769617691070602</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2132824654.469684</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2228797571.806262</v>
+        <v>1986784606.388427</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1441059330809491</v>
+        <v>0.1473507250850693</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02438571771255066</v>
+        <v>0.02843866811092269</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1114398881.201333</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4067930815.843418</v>
+        <v>4338760942.977558</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1331367622698604</v>
+        <v>0.09385266587967214</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05282398306396473</v>
+        <v>0.04003840041874664</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>153</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2033965368.804833</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1307019662.682461</v>
+        <v>1636022931.099302</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1454501651354873</v>
+        <v>0.1291665103073987</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03699794533681398</v>
+        <v>0.03113743076299797</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>653509831.8296956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5317675854.488657</v>
+        <v>3433275839.547115</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1003563007216675</v>
+        <v>0.09585350021108378</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03301549808056037</v>
+        <v>0.02468321982756095</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2658837992.291233</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3973777706.742595</v>
+        <v>4396819367.519296</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1349558417907652</v>
+        <v>0.1236850763547968</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02275300138157489</v>
+        <v>0.03139787515652342</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1986888815.637889</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4263862564.268936</v>
+        <v>4779715825.391167</v>
       </c>
       <c r="F82" t="n">
-        <v>0.158067324801956</v>
+        <v>0.1794916931398275</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02789671704412356</v>
+        <v>0.02747291469550082</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2131931307.163351</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1865283425.986629</v>
+        <v>2022567527.241485</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242902809516013</v>
+        <v>0.1092608170347021</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03626136916596469</v>
+        <v>0.04481627014981181</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>932641681.5836827</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2455763268.788631</v>
+        <v>2183511495.89511</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1041691840832925</v>
+        <v>0.08584498190042586</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04808251264910939</v>
+        <v>0.04500659800718409</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1227881572.722901</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3232584668.071886</v>
+        <v>3233348857.295363</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1255306505371408</v>
+        <v>0.1411143706301567</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05108300968735091</v>
+        <v>0.04684857847603822</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>166</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1616292419.871176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2166014636.22441</v>
+        <v>2555296778.714853</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1059524113665497</v>
+        <v>0.1204143875744452</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01926234065126662</v>
+        <v>0.02163529432572567</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1083007368.850608</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1273694104.93244</v>
+        <v>1280996647.31806</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1814540059716091</v>
+        <v>0.1602534499217285</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03902004099918207</v>
+        <v>0.04303274154327179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>636847126.952361</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2628329498.368545</v>
+        <v>2554734046.024216</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1524291922528054</v>
+        <v>0.1448940230042839</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03800793836117391</v>
+        <v>0.03458510645433342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>174</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1314164742.91741</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3392519746.301933</v>
+        <v>2798316888.965121</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1482754741802008</v>
+        <v>0.1582857278521056</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03380110027100367</v>
+        <v>0.02641187912688965</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>148</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1696259882.498117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1880139303.351025</v>
+        <v>2051232064.349694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1366690142716958</v>
+        <v>0.08757836523269219</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04925925287903098</v>
+        <v>0.04020445077047596</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>940069700.0357873</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1608304508.22896</v>
+        <v>1482233877.863552</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1388262435990093</v>
+        <v>0.1497689790262205</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04133047818927734</v>
+        <v>0.05574225536387026</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>804152278.6148337</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1973026834.58853</v>
+        <v>2508439976.20021</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07327583197774991</v>
+        <v>0.1005012283323408</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04322343828180485</v>
+        <v>0.02919543372036563</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>986513361.4982013</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3228138941.180505</v>
+        <v>3473882235.347857</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1001123642333291</v>
+        <v>0.1168800221291841</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03799750600244716</v>
+        <v>0.05161535733726837</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1614069521.146976</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1992037482.252995</v>
+        <v>2162875480.879719</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1199156301523704</v>
+        <v>0.1043549789614681</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04294305011379033</v>
+        <v>0.034726522186642</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>996018738.430293</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2435413577.650227</v>
+        <v>2467386335.539517</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1211211309944769</v>
+        <v>0.1012073239745723</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0519054955804143</v>
+        <v>0.05076567657326903</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>106</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1217706829.614095</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2266386504.364937</v>
+        <v>2095901816.536074</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1191761830748177</v>
+        <v>0.1367967665703714</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03637400198288181</v>
+        <v>0.03575350906893358</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1133193210.732604</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3716059628.432921</v>
+        <v>4401408097.049157</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1426737790801843</v>
+        <v>0.1300193736641915</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02793314096827404</v>
+        <v>0.01919000297284381</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>141</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1858029847.77441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3063367952.835146</v>
+        <v>3335402589.575436</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09961801880890678</v>
+        <v>0.1177418409856942</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03281708278372775</v>
+        <v>0.02206327875868383</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1531683965.419392</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3331561769.13664</v>
+        <v>2231872454.28261</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1150811798859414</v>
+        <v>0.1326385857554175</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03486654564689318</v>
+        <v>0.02447005453125155</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>138</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1665780894.542822</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3301200376.202357</v>
+        <v>3850147734.85405</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1595714871865489</v>
+        <v>0.1494284125542379</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02748067866502071</v>
+        <v>0.0216072390105815</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1650600203.00622</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3530435687.406894</v>
+        <v>2787673542.822387</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1412697699222673</v>
+        <v>0.1816361062698239</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03894628947210787</v>
+        <v>0.05134960105098657</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>179</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1765218002.882064</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_439.xlsx
+++ b/output/fit_clients/fit_round_439.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1795019264.955809</v>
+        <v>2487359552.190387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1065355085509787</v>
+        <v>0.0747545247053966</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03446876380514438</v>
+        <v>0.03602707642405048</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1691254077.378573</v>
+        <v>2016444808.026888</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1772885795934246</v>
+        <v>0.146502465131788</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04787484777966049</v>
+        <v>0.03516179876205022</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3618364739.678761</v>
+        <v>4088127859.323718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1647463617871137</v>
+        <v>0.1276277852562089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02308393241892657</v>
+        <v>0.03239939973631731</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3417086130.486222</v>
+        <v>4116499664.693549</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1037398150633373</v>
+        <v>0.07573691107214109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03869899654413452</v>
+        <v>0.03203750995747622</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2354393365.563504</v>
+        <v>1772787938.563955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09151886411510134</v>
+        <v>0.1074942864059708</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05627645348648948</v>
+        <v>0.03911244667130801</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2023421545.339101</v>
+        <v>2606516974.029968</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08373398267164787</v>
+        <v>0.06985464440674234</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03162282058050147</v>
+        <v>0.0380788500145855</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3533457361.153672</v>
+        <v>2673589799.268506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1976410985855619</v>
+        <v>0.1997970935518657</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02577276404014059</v>
+        <v>0.02636918445687297</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1828165696.014564</v>
+        <v>2251689509.893373</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1365890955719579</v>
+        <v>0.1545752092265946</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02454155600738441</v>
+        <v>0.02753351524319111</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5277986813.776615</v>
+        <v>3963061200.518696</v>
       </c>
       <c r="F10" t="n">
-        <v>0.15989657181115</v>
+        <v>0.1970681707365893</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05421758707371239</v>
+        <v>0.03560875405834318</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3135771964.426755</v>
+        <v>3281846896.57122</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1542943900063181</v>
+        <v>0.1243049928636693</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03322976515386795</v>
+        <v>0.04604511783002039</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2656029450.292398</v>
+        <v>2752253147.86817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1956804696648007</v>
+        <v>0.1490013229212044</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04276760999766745</v>
+        <v>0.04503369664525102</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3548744470.391042</v>
+        <v>4622282061.627804</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07990299574655005</v>
+        <v>0.07984353440042173</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02367833929354036</v>
+        <v>0.02293436233930144</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3853270564.427757</v>
+        <v>2940911179.254681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.138896474617752</v>
+        <v>0.1307804892599214</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02874117462343792</v>
+        <v>0.02795240494358834</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1559626792.572781</v>
+        <v>1541118260.441275</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07549574755253244</v>
+        <v>0.08585026815214801</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0368357459261898</v>
+        <v>0.0306073827523945</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2548142222.796157</v>
+        <v>2859449819.105407</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09466514523381897</v>
+        <v>0.1011708573599558</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04361629768241934</v>
+        <v>0.04975164691135649</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4138197984.813383</v>
+        <v>4648720316.606603</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1239442176003989</v>
+        <v>0.1653440151975258</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05115779077927855</v>
+        <v>0.03563053722214016</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3820440260.919036</v>
+        <v>3344527766.149922</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1780622539022212</v>
+        <v>0.1583982515250059</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02290725767264692</v>
+        <v>0.02733342994226035</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1100362486.370949</v>
+        <v>905065535.9872539</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1767098855439312</v>
+        <v>0.1521765482710976</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02180514758706621</v>
+        <v>0.0249962154932381</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2588423843.210085</v>
+        <v>1725992515.763195</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157104721266805</v>
+        <v>0.127069385778319</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02895972991417645</v>
+        <v>0.03038902648097805</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2612074073.447161</v>
+        <v>1975294557.493432</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08805104860590086</v>
+        <v>0.08753162193435431</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03245098693585453</v>
+        <v>0.04154688182796768</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3949272981.284768</v>
+        <v>2888417774.216949</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1261730482527658</v>
+        <v>0.09480870735578339</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0457563986273577</v>
+        <v>0.03957735314428575</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1242431316.372179</v>
+        <v>986370615.6692601</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1435564310120281</v>
+        <v>0.1253447872133314</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0534493096709217</v>
+        <v>0.04749264051706322</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3834702548.625439</v>
+        <v>3612236170.335776</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1389274025998387</v>
+        <v>0.09122932557145756</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02962046486713107</v>
+        <v>0.02913028328657333</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1077072904.256281</v>
+        <v>942293529.951177</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09528502238217076</v>
+        <v>0.07616035081700201</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02006758083468228</v>
+        <v>0.02169715621236297</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1019869582.488502</v>
+        <v>1179172878.282212</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0988436237025678</v>
+        <v>0.1193496750911159</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02841593481535968</v>
+        <v>0.02762602836507197</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4222400241.16551</v>
+        <v>3591360259.259807</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1553144629033784</v>
+        <v>0.1221238081355993</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02342583348253388</v>
+        <v>0.01757835602479777</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2449401633.506745</v>
+        <v>2395567167.519409</v>
       </c>
       <c r="F28" t="n">
-        <v>0.127804698710221</v>
+        <v>0.1307597367757047</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0312243357776255</v>
+        <v>0.03295869215771776</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5538099801.290518</v>
+        <v>4871281312.826685</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1500731093674164</v>
+        <v>0.1261473555697286</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0378681496217913</v>
+        <v>0.03261745028056098</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1971245035.870699</v>
+        <v>1490987734.51909</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1316550319984962</v>
+        <v>0.08665981632721401</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03841761762462441</v>
+        <v>0.03267975360568694</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1474189643.802715</v>
+        <v>1315105348.192229</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09816599939418162</v>
+        <v>0.1095661955531352</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05042512435792137</v>
+        <v>0.03609877798813581</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393161774.832598</v>
+        <v>1324257189.166436</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1098153315950262</v>
+        <v>0.09241477712682833</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03339525674487865</v>
+        <v>0.02631651870371345</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3122893856.580291</v>
+        <v>2736203726.908726</v>
       </c>
       <c r="F33" t="n">
-        <v>0.200726637878106</v>
+        <v>0.1960656443141049</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04829876084322328</v>
+        <v>0.05407764060337641</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1370506941.644069</v>
+        <v>1417261258.921585</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08823900717442419</v>
+        <v>0.101452672931687</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02708180442469902</v>
+        <v>0.01841213256608121</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1117334293.705201</v>
+        <v>937497581.4896131</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07247715837308438</v>
+        <v>0.0743761685553803</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03700313348591664</v>
+        <v>0.03277253619582293</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2372243603.780334</v>
+        <v>1964142447.515926</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1707505228318349</v>
+        <v>0.1718369348097701</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02089338343260557</v>
+        <v>0.02354773769185247</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2569668313.829958</v>
+        <v>2217482504.844421</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09693369757787323</v>
+        <v>0.1114082571968564</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03793998576524137</v>
+        <v>0.04154999151896124</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1712241889.710085</v>
+        <v>1407037144.759312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07368225188570234</v>
+        <v>0.10103879087717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03410103902851724</v>
+        <v>0.02438546968913435</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2157558704.565521</v>
+        <v>1985392849.223019</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1402414322978771</v>
+        <v>0.144213430345225</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0301285328363008</v>
+        <v>0.02195111324443768</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1624333827.506794</v>
+        <v>1418103811.742458</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1148161745080093</v>
+        <v>0.1255856406274673</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04815890421736484</v>
+        <v>0.03746660105062814</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1940321602.047041</v>
+        <v>1799029137.665097</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1218348977221899</v>
+        <v>0.1403034612719621</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04475208635874033</v>
+        <v>0.03917893577484741</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3233459101.615358</v>
+        <v>3210856834.930251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.110477747090454</v>
+        <v>0.1012200917805933</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03605707950095365</v>
+        <v>0.03478855627689376</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2004916985.725905</v>
+        <v>2049476599.901976</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1377095818074487</v>
+        <v>0.1973628141438376</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01770998597231055</v>
+        <v>0.01927571594112765</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1479060108.163973</v>
+        <v>1821279741.503313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06782508269590332</v>
+        <v>0.06615347805368102</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02729158115420206</v>
+        <v>0.02721644458788757</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1658826838.057094</v>
+        <v>2532898991.894444</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1334821352984356</v>
+        <v>0.1460266535327891</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04670391173176126</v>
+        <v>0.03912146169213575</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4012625285.618985</v>
+        <v>5040854103.078156</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1308530931849775</v>
+        <v>0.1226896321607419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03823868419539586</v>
+        <v>0.06042767328477325</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4108171218.053906</v>
+        <v>3158874915.398049</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1587456471399499</v>
+        <v>0.1960331841464323</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05556208550918776</v>
+        <v>0.05235722462846839</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4447022922.182544</v>
+        <v>3575112367.437712</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08141982396813026</v>
+        <v>0.0897782596693274</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03096125737026068</v>
+        <v>0.03377614043559298</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1673996345.662369</v>
+        <v>1739139118.935131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1899673939307548</v>
+        <v>0.143157394429275</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03106800205506613</v>
+        <v>0.02702154298732108</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4110763363.484396</v>
+        <v>4115281775.208395</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1159181714688717</v>
+        <v>0.1162839825549911</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04391427757029664</v>
+        <v>0.04173711102749733</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1406186945.201559</v>
+        <v>1339642933.37501</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1216622600707266</v>
+        <v>0.1685653952874429</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05386108199241936</v>
+        <v>0.05221291631561698</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4395023091.045159</v>
+        <v>3897025601.157896</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1105333201673476</v>
+        <v>0.09527153592416646</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03988522837817825</v>
+        <v>0.04721402825488122</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3671582991.915967</v>
+        <v>2322267983.796443</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1313263936764158</v>
+        <v>0.1464721356785166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02462506750330109</v>
+        <v>0.0271798120922501</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4567160312.955838</v>
+        <v>4345318247.634686</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1307508589610006</v>
+        <v>0.165130438842445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04395841597779013</v>
+        <v>0.04662094595769956</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4590671423.67163</v>
+        <v>3515552262.003271</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1693447361472747</v>
+        <v>0.2057124534076657</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03003951944521516</v>
+        <v>0.02506380048165757</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1584006141.091352</v>
+        <v>1861259401.415453</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1283774078790048</v>
+        <v>0.1052228129679339</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05173057163387217</v>
+        <v>0.0560400428063981</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3492090385.088136</v>
+        <v>3279473843.159268</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1215588382861529</v>
+        <v>0.1415091069906506</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01939232315500476</v>
+        <v>0.02296992283946566</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1688067893.990697</v>
+        <v>1445178391.241465</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1449325299146818</v>
+        <v>0.162303213407499</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03461845612818253</v>
+        <v>0.03134941366158088</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3397294378.001487</v>
+        <v>4267190432.853025</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1259610731900903</v>
+        <v>0.1021383033214049</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04444082919070319</v>
+        <v>0.03288119943817216</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3166553859.266991</v>
+        <v>3436532457.194861</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1794251073547299</v>
+        <v>0.1428227611913001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03037017493103046</v>
+        <v>0.03122761581923014</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3027911727.459254</v>
+        <v>2395164972.434477</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1458142285218698</v>
+        <v>0.1333563343041948</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02674916808156165</v>
+        <v>0.02511991583654072</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1689370092.547983</v>
+        <v>1767048416.860921</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1275825111221534</v>
+        <v>0.1692986712925595</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03530108617237792</v>
+        <v>0.04185192398878766</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3566369426.311415</v>
+        <v>5424666557.574225</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09911711572606252</v>
+        <v>0.1033309916885975</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0372632818555638</v>
+        <v>0.04732473458806801</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4176986323.507581</v>
+        <v>3741651959.55127</v>
       </c>
       <c r="F64" t="n">
-        <v>0.152125501469405</v>
+        <v>0.1682825807015245</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03003420394037047</v>
+        <v>0.03032550164140488</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4930032613.982036</v>
+        <v>5003999034.873818</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1355263848261574</v>
+        <v>0.123280663650956</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02075674902449042</v>
+        <v>0.03163197268567128</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3698381095.736235</v>
+        <v>5520853176.120384</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1625004383955006</v>
+        <v>0.1590382614372517</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0354035054583182</v>
+        <v>0.03819884426062375</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3383006844.874485</v>
+        <v>2467849038.020341</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06465848637386441</v>
+        <v>0.07956047463375883</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03555817321671735</v>
+        <v>0.04427805542219604</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4360525890.066866</v>
+        <v>4039134419.747569</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452738239820998</v>
+        <v>0.1434967614575531</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04261644318292868</v>
+        <v>0.04456549047367347</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2001847254.910191</v>
+        <v>2304040758.598464</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1422156735036824</v>
+        <v>0.1267331302936912</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05182186617409779</v>
+        <v>0.04636712137313085</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3187569671.935206</v>
+        <v>3654595791.215073</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06954445236286108</v>
+        <v>0.1001143910548603</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03368781744420175</v>
+        <v>0.03562796119701928</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4488550382.001463</v>
+        <v>3886889719.386785</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1565831016902153</v>
+        <v>0.1656581866966749</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02898249228471196</v>
+        <v>0.0264564330060858</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,16 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2065399216.567976</v>
+        <v>1736945482.619275</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09649989070843629</v>
+        <v>0.09772851499119002</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04726916969244372</v>
+        <v>0.04331281399599304</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2727326875.903335</v>
+        <v>2757100291.428744</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0934518915416256</v>
+        <v>0.09454754084516034</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04277447796117811</v>
+        <v>0.03918905442076868</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2547224488.88663</v>
+        <v>2784692335.77013</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1497212743551498</v>
+        <v>0.1149834083001478</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03336068972649781</v>
+        <v>0.03386700742970147</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1692442113.978146</v>
+        <v>2500466465.488204</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1547773449782724</v>
+        <v>0.156633486869159</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03422882615909435</v>
+        <v>0.03391149225875142</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4064138719.448208</v>
+        <v>3764167901.300476</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09239187508254067</v>
+        <v>0.07815854944452962</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02769617691070602</v>
+        <v>0.03390020408464066</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1986784606.388427</v>
+        <v>1707072794.370752</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1473507250850693</v>
+        <v>0.1373481845182162</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02843866811092269</v>
+        <v>0.0263446876802351</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4338760942.977558</v>
+        <v>4403211291.887295</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09385266587967214</v>
+        <v>0.09723511482554829</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04003840041874664</v>
+        <v>0.04531815460328164</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1636022931.099302</v>
+        <v>1158650005.742283</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1291665103073987</v>
+        <v>0.162069752326906</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03113743076299797</v>
+        <v>0.03412108851436967</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3433275839.547115</v>
+        <v>3650820188.083722</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09585350021108378</v>
+        <v>0.09042584483986851</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02468321982756095</v>
+        <v>0.03270540970405911</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4396819367.519296</v>
+        <v>4484394459.644751</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1236850763547968</v>
+        <v>0.1146494984998214</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03139787515652342</v>
+        <v>0.02337874924352734</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4779715825.391167</v>
+        <v>3661645090.621729</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1794916931398275</v>
+        <v>0.1404995460799678</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02747291469550082</v>
+        <v>0.02465838117138377</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2022567527.241485</v>
+        <v>1809553032.394602</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1092608170347021</v>
+        <v>0.126588533580588</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04481627014981181</v>
+        <v>0.02967974650821538</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2183511495.89511</v>
+        <v>2167945750.67387</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08584498190042586</v>
+        <v>0.1073085657949777</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04500659800718409</v>
+        <v>0.04189484414608253</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3233348857.295363</v>
+        <v>3072331055.736041</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1411143706301567</v>
+        <v>0.1170836800150069</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04684857847603822</v>
+        <v>0.05097518545166279</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2555296778.714853</v>
+        <v>2474878567.74239</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1204143875744452</v>
+        <v>0.1275127694665497</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02163529432572567</v>
+        <v>0.02293653474604835</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1280996647.31806</v>
+        <v>1320291246.525778</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1602534499217285</v>
+        <v>0.1535776050676628</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04303274154327179</v>
+        <v>0.03849359424842953</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2554734046.024216</v>
+        <v>3718905657.388363</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1448940230042839</v>
+        <v>0.1718191992353018</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03458510645433342</v>
+        <v>0.02505284374596082</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2798316888.965121</v>
+        <v>2628252008.640984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1582857278521056</v>
+        <v>0.1214768031577584</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02641187912688965</v>
+        <v>0.02676226752856126</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2051232064.349694</v>
+        <v>1878945945.985884</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08757836523269219</v>
+        <v>0.09580387059719898</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04020445077047596</v>
+        <v>0.04027425285099726</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1482233877.863552</v>
+        <v>1777027744.424505</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1497689790262205</v>
+        <v>0.1914360002586971</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05574225536387026</v>
+        <v>0.05091991173729428</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2508439976.20021</v>
+        <v>2031148292.586928</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1005012283323408</v>
+        <v>0.0975679484190265</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02919543372036563</v>
+        <v>0.04001612395331433</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3473882235.347857</v>
+        <v>4500635699.16133</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1168800221291841</v>
+        <v>0.1309769737491523</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05161535733726837</v>
+        <v>0.03734300491221319</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2162875480.879719</v>
+        <v>1838413737.111377</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1043549789614681</v>
+        <v>0.1565930744237089</v>
       </c>
       <c r="G94" t="n">
-        <v>0.034726522186642</v>
+        <v>0.04248784739053518</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2467386335.539517</v>
+        <v>2889898520.136093</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1012073239745723</v>
+        <v>0.09298067127489111</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05076567657326903</v>
+        <v>0.04380311829642564</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2095901816.536074</v>
+        <v>1711738498.489341</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1367967665703714</v>
+        <v>0.1412425236619792</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03575350906893358</v>
+        <v>0.03017414091668777</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4401408097.049157</v>
+        <v>3286098317.328192</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1300193736641915</v>
+        <v>0.136201667516604</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01919000297284381</v>
+        <v>0.01799493970323075</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3335402589.575436</v>
+        <v>3112001016.001081</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1177418409856942</v>
+        <v>0.09096078000960459</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02206327875868383</v>
+        <v>0.0304563516257189</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2231872454.28261</v>
+        <v>3103084594.946752</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1326385857554175</v>
+        <v>0.1188814425077371</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02447005453125155</v>
+        <v>0.02528430579956654</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3850147734.85405</v>
+        <v>3255503031.340494</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494284125542379</v>
+        <v>0.1526053021731497</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0216072390105815</v>
+        <v>0.0170143892132751</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2787673542.822387</v>
+        <v>2434150817.443533</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1816361062698239</v>
+        <v>0.2162276225132182</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05134960105098657</v>
+        <v>0.04219655216397537</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_439.xlsx
+++ b/output/fit_clients/fit_round_439.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2487359552.190387</v>
+        <v>1537753652.906623</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0747545247053966</v>
+        <v>0.07198988056365181</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03602707642405048</v>
+        <v>0.0291828166972649</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2016444808.026888</v>
+        <v>2578592415.914362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.146502465131788</v>
+        <v>0.1839055239308694</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03516179876205022</v>
+        <v>0.0319952810650069</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4088127859.323718</v>
+        <v>3360659711.122277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1276277852562089</v>
+        <v>0.1218316130112055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03239939973631731</v>
+        <v>0.03825964660416976</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>437</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4116499664.693549</v>
+        <v>3290875277.319869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07573691107214109</v>
+        <v>0.08811277003790025</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03203750995747622</v>
+        <v>0.03745261386692459</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>183</v>
+      </c>
+      <c r="J5" t="n">
+        <v>438</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33.98815759097789</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1772787938.563955</v>
+        <v>2230863172.696846</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1074942864059708</v>
+        <v>0.1034574795133998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03911244667130801</v>
+        <v>0.0392796649427493</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2606516974.029968</v>
+        <v>2146569124.872806</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06985464440674234</v>
+        <v>0.09833448057199411</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0380788500145855</v>
+        <v>0.03081166705116057</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2673589799.268506</v>
+        <v>3714936333.440667</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1997970935518657</v>
+        <v>0.18519749394509</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02636918445687297</v>
+        <v>0.02161089413827774</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>118</v>
+      </c>
+      <c r="J8" t="n">
+        <v>439</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2251689509.893373</v>
+        <v>1563961546.356563</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1545752092265946</v>
+        <v>0.1454222165439064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02753351524319111</v>
+        <v>0.03480698848988333</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3963061200.518696</v>
+        <v>4447650572.564054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1970681707365893</v>
+        <v>0.1925236191489174</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03560875405834318</v>
+        <v>0.03717111540501525</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>344</v>
+      </c>
+      <c r="J10" t="n">
+        <v>439</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3281846896.57122</v>
+        <v>3624754749.670827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1243049928636693</v>
+        <v>0.168547456336394</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04604511783002039</v>
+        <v>0.04898159469463667</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>181</v>
+      </c>
+      <c r="J11" t="n">
+        <v>439</v>
+      </c>
+      <c r="K11" t="n">
+        <v>43.94960030017972</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2752253147.86817</v>
+        <v>2400998883.063111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1490013229212044</v>
+        <v>0.1763211395753389</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04503369664525102</v>
+        <v>0.04181922648553738</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4622282061.627804</v>
+        <v>3270107166.670655</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07984353440042173</v>
+        <v>0.08521687067706078</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02293436233930144</v>
+        <v>0.02212389730823874</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>228</v>
+      </c>
+      <c r="J13" t="n">
+        <v>436</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2940911179.254681</v>
+        <v>3820296572.302939</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1307804892599214</v>
+        <v>0.1828706135201721</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02795240494358834</v>
+        <v>0.03299447777428913</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>95</v>
+      </c>
+      <c r="J14" t="n">
+        <v>439</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1541118260.441275</v>
+        <v>1195233947.675607</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08585026815214801</v>
+        <v>0.09099879632881325</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0306073827523945</v>
+        <v>0.04283079038341349</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2859449819.105407</v>
+        <v>1942434749.423548</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1011708573599558</v>
+        <v>0.08829066665748678</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04975164691135649</v>
+        <v>0.04897735687148663</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4648720316.606603</v>
+        <v>4259462200.832494</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1653440151975258</v>
+        <v>0.1428458596910266</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03563053722214016</v>
+        <v>0.03655204304395425</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>214</v>
+      </c>
+      <c r="J17" t="n">
+        <v>438</v>
+      </c>
+      <c r="K17" t="n">
+        <v>37.71268080561644</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3344527766.149922</v>
+        <v>3378605261.548709</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1583982515250059</v>
+        <v>0.1628677988686189</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02733342994226035</v>
+        <v>0.03343399422198374</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>113</v>
+      </c>
+      <c r="J18" t="n">
+        <v>439</v>
+      </c>
+      <c r="K18" t="n">
+        <v>43.63382787943447</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>905065535.9872539</v>
+        <v>1020606850.112577</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1521765482710976</v>
+        <v>0.1890984047698612</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0249962154932381</v>
+        <v>0.02027656616743085</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1725992515.763195</v>
+        <v>2353015624.051827</v>
       </c>
       <c r="F20" t="n">
-        <v>0.127069385778319</v>
+        <v>0.1358539899948209</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03038902648097805</v>
+        <v>0.02009498234160264</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1975294557.493432</v>
+        <v>2706410721.870102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08753162193435431</v>
+        <v>0.09707395007098613</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04154688182796768</v>
+        <v>0.03243984399289552</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2888417774.216949</v>
+        <v>3740935153.580755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09480870735578339</v>
+        <v>0.1256862995713349</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03957735314428575</v>
+        <v>0.05001585156934064</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>129</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>986370615.6692601</v>
+        <v>1355360219.432584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1253447872133314</v>
+        <v>0.1831243248234239</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04749264051706322</v>
+        <v>0.0456006261515793</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3612236170.335776</v>
+        <v>4149054479.820346</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09122932557145756</v>
+        <v>0.1074002102907653</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02913028328657333</v>
+        <v>0.02625310366987171</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>138</v>
+      </c>
+      <c r="J24" t="n">
+        <v>439</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>942293529.951177</v>
+        <v>1156233373.555486</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07616035081700201</v>
+        <v>0.1210415874289196</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02169715621236297</v>
+        <v>0.01944372707067795</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1349,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1179172878.282212</v>
+        <v>1283695248.954754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1193496750911159</v>
+        <v>0.09403378159874337</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02762602836507197</v>
+        <v>0.02666315434353176</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1384,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3591360259.259807</v>
+        <v>4078040668.762064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1221238081355993</v>
+        <v>0.1154248018426075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01757835602479777</v>
+        <v>0.02083362264995658</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>190</v>
+      </c>
+      <c r="J27" t="n">
+        <v>439</v>
+      </c>
+      <c r="K27" t="n">
+        <v>39.88834059040831</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1421,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2395567167.519409</v>
+        <v>2554460809.896021</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1307597367757047</v>
+        <v>0.1263175799742448</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03295869215771776</v>
+        <v>0.03466540836412332</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4871281312.826685</v>
+        <v>3923728865.053844</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1261473555697286</v>
+        <v>0.1470081010699956</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03261745028056098</v>
+        <v>0.02900429909458999</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>360</v>
+      </c>
+      <c r="J29" t="n">
+        <v>439</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1490987734.51909</v>
+        <v>2013787639.082408</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08665981632721401</v>
+        <v>0.08594533758128858</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03267975360568694</v>
+        <v>0.02966789449117391</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1315105348.192229</v>
+        <v>1295183070.403306</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1095661955531352</v>
+        <v>0.09304634211991467</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03609877798813581</v>
+        <v>0.04850060407824007</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1324257189.166436</v>
+        <v>1811696958.028938</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09241477712682833</v>
+        <v>0.07636735978642603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02631651870371345</v>
+        <v>0.0387990681799107</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2736203726.908726</v>
+        <v>2513460079.845872</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1960656443141049</v>
+        <v>0.19664071864561</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05407764060337641</v>
+        <v>0.05388547351713711</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1417261258.921585</v>
+        <v>1254951806.296555</v>
       </c>
       <c r="F34" t="n">
-        <v>0.101452672931687</v>
+        <v>0.09536862305462038</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01841213256608121</v>
+        <v>0.02717324203301658</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>937497581.4896131</v>
+        <v>1336307680.716005</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0743761685553803</v>
+        <v>0.09956517821972877</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03277253619582293</v>
+        <v>0.03697214295213024</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1964142447.515926</v>
+        <v>3154763269.788154</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1718369348097701</v>
+        <v>0.1624250030699572</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02354773769185247</v>
+        <v>0.02148593278279994</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2217482504.844421</v>
+        <v>2220986671.78893</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1114082571968564</v>
+        <v>0.07795210918274607</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04154999151896124</v>
+        <v>0.04264706059880984</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1407037144.759312</v>
+        <v>2091855595.412043</v>
       </c>
       <c r="F38" t="n">
-        <v>0.10103879087717</v>
+        <v>0.1114331545582281</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02438546968913435</v>
+        <v>0.02728174963738392</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1806,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1985392849.223019</v>
+        <v>1924108877.719611</v>
       </c>
       <c r="F39" t="n">
-        <v>0.144213430345225</v>
+        <v>0.1428459524255817</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02195111324443768</v>
+        <v>0.03066370168787839</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1418103811.742458</v>
+        <v>1437883413.01911</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1255856406274673</v>
+        <v>0.1606477437762062</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03746660105062814</v>
+        <v>0.03693987712949567</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1799029137.665097</v>
+        <v>2064256146.30026</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1403034612719621</v>
+        <v>0.1220264443402588</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03917893577484741</v>
+        <v>0.03405697885340015</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3210856834.930251</v>
+        <v>2924262296.89861</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012200917805933</v>
+        <v>0.07944838661370789</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03478855627689376</v>
+        <v>0.03109228039170453</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>190</v>
+      </c>
+      <c r="J42" t="n">
+        <v>438</v>
+      </c>
+      <c r="K42" t="n">
+        <v>27.77234665365562</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2049476599.901976</v>
+        <v>1893375769.00239</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1973628141438376</v>
+        <v>0.1973141532292208</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01927571594112765</v>
+        <v>0.02026811330177387</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1821279741.503313</v>
+        <v>1693333806.040496</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06615347805368102</v>
+        <v>0.07505815863975938</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02721644458788757</v>
+        <v>0.02383694077000105</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2532898991.894444</v>
+        <v>2240292525.899362</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1460266535327891</v>
+        <v>0.1186957970548582</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03912146169213575</v>
+        <v>0.03429528651780693</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2053,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5040854103.078156</v>
+        <v>3922525772.508524</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1226896321607419</v>
+        <v>0.1701827138786752</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06042767328477325</v>
+        <v>0.05033728614845562</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>261</v>
+      </c>
+      <c r="J46" t="n">
+        <v>439</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3158874915.398049</v>
+        <v>4565352588.641272</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1960331841464323</v>
+        <v>0.1851745163723648</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05235722462846839</v>
+        <v>0.05013352144784138</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>197</v>
+      </c>
+      <c r="J47" t="n">
+        <v>438</v>
+      </c>
+      <c r="K47" t="n">
+        <v>37.77222736506544</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3575112367.437712</v>
+        <v>2887582679.06776</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0897782596693274</v>
+        <v>0.1001244738936042</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03377614043559298</v>
+        <v>0.03743548987630143</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>435</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1739139118.935131</v>
+        <v>1262586396.02876</v>
       </c>
       <c r="F49" t="n">
-        <v>0.143157394429275</v>
+        <v>0.1731634670837979</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02702154298732108</v>
+        <v>0.03238800598730877</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4115281775.208395</v>
+        <v>3102821291.426404</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1162839825549911</v>
+        <v>0.1360029892633322</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04173711102749733</v>
+        <v>0.05116822102435092</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>154</v>
+      </c>
+      <c r="J50" t="n">
+        <v>437</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1339642933.37501</v>
+        <v>1311088157.958851</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1685653952874429</v>
+        <v>0.1286543065235496</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05221291631561698</v>
+        <v>0.04890766548336568</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3897025601.157896</v>
+        <v>3788159617.974448</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09527153592416646</v>
+        <v>0.0972273685373389</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04721402825488122</v>
+        <v>0.04647935904493128</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>251</v>
+      </c>
+      <c r="J52" t="n">
+        <v>438</v>
+      </c>
+      <c r="K52" t="n">
+        <v>35.36300706348763</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2322267983.796443</v>
+        <v>3028185005.750526</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1464721356785166</v>
+        <v>0.197034077955932</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0271798120922501</v>
+        <v>0.03097109007894036</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>66</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="n">
+        <v>38.77471667646039</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4345318247.634686</v>
+        <v>4161769741.287995</v>
       </c>
       <c r="F54" t="n">
-        <v>0.165130438842445</v>
+        <v>0.1114906428191368</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04662094595769956</v>
+        <v>0.04551433528493751</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>232</v>
+      </c>
+      <c r="J54" t="n">
+        <v>439</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3515552262.003271</v>
+        <v>3718914370.797761</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2057124534076657</v>
+        <v>0.138562596651886</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02506380048165757</v>
+        <v>0.03225484864951131</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>218</v>
+      </c>
+      <c r="J55" t="n">
+        <v>438</v>
+      </c>
+      <c r="K55" t="n">
+        <v>36.36736936146487</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1861259401.415453</v>
+        <v>1789381997.608799</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1052228129679339</v>
+        <v>0.1097728596302735</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0560400428063981</v>
+        <v>0.04071191783735944</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3279473843.159268</v>
+        <v>4373160080.664043</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1415091069906506</v>
+        <v>0.1235954415480381</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02296992283946566</v>
+        <v>0.02209213698896003</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>190</v>
+      </c>
+      <c r="J57" t="n">
+        <v>439</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39.94905935850873</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1445178391.241465</v>
+        <v>1803896250.197118</v>
       </c>
       <c r="F58" t="n">
-        <v>0.162303213407499</v>
+        <v>0.1839063416035781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03134941366158088</v>
+        <v>0.02942734410388858</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4267190432.853025</v>
+        <v>3679306728.983464</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1021383033214049</v>
+        <v>0.1247687700705037</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03288119943817216</v>
+        <v>0.0388535637442617</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>215</v>
+      </c>
+      <c r="J59" t="n">
+        <v>438</v>
+      </c>
+      <c r="K59" t="n">
+        <v>33.60639410876759</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3436532457.194861</v>
+        <v>3387252606.263247</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1428227611913001</v>
+        <v>0.1278386849452028</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03122761581923014</v>
+        <v>0.02873183966517409</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2395164972.434477</v>
+        <v>2220907068.609336</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1333563343041948</v>
+        <v>0.1286753626142466</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02511991583654072</v>
+        <v>0.03065176528524098</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1767048416.860921</v>
+        <v>1624608312.776484</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1692986712925595</v>
+        <v>0.1779996305842143</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04185192398878766</v>
+        <v>0.03576092502171523</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5424666557.574225</v>
+        <v>5267923750.800583</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1033309916885975</v>
+        <v>0.0826871081284373</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04732473458806801</v>
+        <v>0.03691879568850912</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>219</v>
+      </c>
+      <c r="J63" t="n">
+        <v>438</v>
+      </c>
+      <c r="K63" t="n">
+        <v>37.55689163170045</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3741651959.55127</v>
+        <v>4151379053.279052</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1682825807015245</v>
+        <v>0.1167707688158486</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03032550164140488</v>
+        <v>0.03500684980966973</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>220</v>
+      </c>
+      <c r="J64" t="n">
+        <v>438</v>
+      </c>
+      <c r="K64" t="n">
+        <v>34.24745886989721</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5003999034.873818</v>
+        <v>5981051482.714434</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123280663650956</v>
+        <v>0.1337549306359018</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03163197268567128</v>
+        <v>0.02434506074437271</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>317</v>
+      </c>
+      <c r="J65" t="n">
+        <v>438</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.871799021347</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2771,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5520853176.120384</v>
+        <v>5183055257.479808</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1590382614372517</v>
+        <v>0.1329631548823829</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03819884426062375</v>
+        <v>0.04612559040525631</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>216</v>
+      </c>
+      <c r="J66" t="n">
+        <v>439</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2467849038.020341</v>
+        <v>2993148107.681262</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07956047463375883</v>
+        <v>0.06963123991624924</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04427805542219604</v>
+        <v>0.03283107390941704</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4039134419.747569</v>
+        <v>4568357300.494159</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1434967614575531</v>
+        <v>0.1282448624260652</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04456549047367347</v>
+        <v>0.03723892712677607</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>239</v>
+      </c>
+      <c r="J68" t="n">
+        <v>439</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2304040758.598464</v>
+        <v>1859431235.592771</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1267331302936912</v>
+        <v>0.1779114460362056</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04636712137313085</v>
+        <v>0.04975125160288896</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3654595791.215073</v>
+        <v>2299332639.736585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1001143910548603</v>
+        <v>0.09384593520136388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03562796119701928</v>
+        <v>0.04870883312653264</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3886889719.386785</v>
+        <v>4660056329.319778</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1656581866966749</v>
+        <v>0.1211588617508803</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0264564330060858</v>
+        <v>0.02771823795530206</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>303</v>
+      </c>
+      <c r="J71" t="n">
+        <v>438</v>
+      </c>
+      <c r="K71" t="n">
+        <v>37.50560465271337</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1736945482.619275</v>
+        <v>2061846960.217868</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09772851499119002</v>
+        <v>0.06852447271853071</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04331281399599304</v>
+        <v>0.04855237381370555</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2757100291.428744</v>
+        <v>2692927329.205995</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09454754084516034</v>
+        <v>0.09493430908556431</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03918905442076868</v>
+        <v>0.03551437468075429</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>33</v>
+      </c>
+      <c r="J73" t="n">
+        <v>437</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2784692335.77013</v>
+        <v>3301902803.704122</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1149834083001478</v>
+        <v>0.1178572523711496</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03386700742970147</v>
+        <v>0.0260038721350931</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2500466465.488204</v>
+        <v>1972754591.915724</v>
       </c>
       <c r="F75" t="n">
-        <v>0.156633486869159</v>
+        <v>0.10383143112144</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03391149225875142</v>
+        <v>0.02603495567588726</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3123,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3764167901.300476</v>
+        <v>3594848998.787515</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07815854944452962</v>
+        <v>0.0787896259484387</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03390020408464066</v>
+        <v>0.0308928795279398</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>209</v>
+      </c>
+      <c r="J76" t="n">
+        <v>439</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1707072794.370752</v>
+        <v>2312235757.319341</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1373481845182162</v>
+        <v>0.1606732702690138</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0263446876802351</v>
+        <v>0.02108178182694464</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4403211291.887295</v>
+        <v>4171210237.483355</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09723511482554829</v>
+        <v>0.09366991010404653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04531815460328164</v>
+        <v>0.040178304372538</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>219</v>
+      </c>
+      <c r="J78" t="n">
+        <v>439</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1158650005.742283</v>
+        <v>1473815740.508366</v>
       </c>
       <c r="F79" t="n">
-        <v>0.162069752326906</v>
+        <v>0.1281416520211006</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03412108851436967</v>
+        <v>0.04076239650866877</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3650820188.083722</v>
+        <v>4564931453.85515</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09042584483986851</v>
+        <v>0.09921395506363999</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03270540970405911</v>
+        <v>0.03787272656702421</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>214</v>
+      </c>
+      <c r="J80" t="n">
+        <v>438</v>
+      </c>
+      <c r="K80" t="n">
+        <v>32.99063108334828</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4484394459.644751</v>
+        <v>3783107123.924723</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1146494984998214</v>
+        <v>0.08459759888818952</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02337874924352734</v>
+        <v>0.02384793300774813</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>203</v>
+      </c>
+      <c r="J81" t="n">
+        <v>439</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3661645090.621729</v>
+        <v>5269025033.97309</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1404995460799678</v>
+        <v>0.1831294763218475</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02465838117138377</v>
+        <v>0.02655918689855426</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>295</v>
+      </c>
+      <c r="J82" t="n">
+        <v>438</v>
+      </c>
+      <c r="K82" t="n">
+        <v>37.02674557365693</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1809553032.394602</v>
+        <v>2031678433.396771</v>
       </c>
       <c r="F83" t="n">
-        <v>0.126588533580588</v>
+        <v>0.1434376492128736</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02967974650821538</v>
+        <v>0.03647053283657064</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2167945750.67387</v>
+        <v>1929920642.62431</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1073085657949777</v>
+        <v>0.0864960966146652</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04189484414608253</v>
+        <v>0.03747126952850821</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3436,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3072331055.736041</v>
+        <v>2457338213.025251</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1170836800150069</v>
+        <v>0.1739322169247228</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05097518545166279</v>
+        <v>0.05555529262854187</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="n">
+        <v>32.26121711002462</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2474878567.74239</v>
+        <v>2652341003.658315</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1275127694665497</v>
+        <v>0.1257744564142994</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02293653474604835</v>
+        <v>0.02726148182135942</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1320291246.525778</v>
+        <v>1009330430.026902</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1535776050676628</v>
+        <v>0.1356001921188446</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03849359424842953</v>
+        <v>0.03409061866479066</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3718905657.388363</v>
+        <v>3051919887.061577</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1718191992353018</v>
+        <v>0.1746753155553391</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02505284374596082</v>
+        <v>0.03578419642925545</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2628252008.640984</v>
+        <v>2806796194.689064</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1214768031577584</v>
+        <v>0.141488815004188</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02676226752856126</v>
+        <v>0.03248863641071655</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1878945945.985884</v>
+        <v>1675378988.008565</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09580387059719898</v>
+        <v>0.08994480100865547</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04027425285099726</v>
+        <v>0.05374684027911301</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1777027744.424505</v>
+        <v>2000963115.50312</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1914360002586971</v>
+        <v>0.1701008520104031</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05091991173729428</v>
+        <v>0.05897721450562186</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2031148292.586928</v>
+        <v>2521798844.714897</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0975679484190265</v>
+        <v>0.1058209165734461</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04001612395331433</v>
+        <v>0.03918333636451399</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4500635699.16133</v>
+        <v>3537691912.614652</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1309769737491523</v>
+        <v>0.1263542732977852</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03734300491221319</v>
+        <v>0.05186663954811045</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>211</v>
+      </c>
+      <c r="J93" t="n">
+        <v>438</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.57148773107546</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1838413737.111377</v>
+        <v>1551609696.300334</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1565930744237089</v>
+        <v>0.1128926813972009</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04248784739053518</v>
+        <v>0.03674886552084649</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3796,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2889898520.136093</v>
+        <v>2370774858.335348</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09298067127489111</v>
+        <v>0.09955051953105147</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04380311829642564</v>
+        <v>0.03371492524599571</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1711738498.489341</v>
+        <v>2310799287.414975</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1412425236619792</v>
+        <v>0.08777216454205448</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03017414091668777</v>
+        <v>0.0302261613913603</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3286098317.328192</v>
+        <v>3298879933.47195</v>
       </c>
       <c r="F97" t="n">
-        <v>0.136201667516604</v>
+        <v>0.1279549264579657</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01799493970323075</v>
+        <v>0.02209015331487657</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>229</v>
+      </c>
+      <c r="J97" t="n">
+        <v>437</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3112001016.001081</v>
+        <v>3258562573.066937</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09096078000960459</v>
+        <v>0.1110034634201417</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0304563516257189</v>
+        <v>0.03270688577666606</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3103084594.946752</v>
+        <v>2069270507.888823</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1188814425077371</v>
+        <v>0.1228330148116295</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02528430579956654</v>
+        <v>0.031400342002208</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3255503031.340494</v>
+        <v>4050671378.116112</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1526053021731497</v>
+        <v>0.1312754093359555</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0170143892132751</v>
+        <v>0.02760118975494216</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>203</v>
+      </c>
+      <c r="J100" t="n">
+        <v>439</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2434150817.443533</v>
+        <v>3576383598.716128</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2162276225132182</v>
+        <v>0.1493181288485629</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04219655216397537</v>
+        <v>0.04475779116506163</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>439</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
